--- a/szxc_data_cleaning/tests/import/13民情日记_导入模板.xlsx
+++ b/szxc_data_cleaning/tests/import/13民情日记_导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelate\Documents\smalltools\Small-Tools\szxc_data_cleaning\tests\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7802A691-0BDD-4882-8A42-520CE5FB7545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5583F6A5-E5DD-4C1D-9CE3-BE2BF42346E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>序号</t>
   </si>
@@ -75,64 +75,90 @@
     <t>发生日期</t>
   </si>
   <si>
+    <t>事件类型</t>
+  </si>
+  <si>
+    <t>跟进结果</t>
+  </si>
+  <si>
+    <t>完成日期</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>纠纷调解</t>
+  </si>
+  <si>
+    <t>乡村文明</t>
+  </si>
+  <si>
+    <t>关爱弱势群体</t>
+  </si>
+  <si>
+    <t>投诉建议</t>
+  </si>
+  <si>
+    <t>安全生产</t>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy/mm/dd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，存在字典项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，15位或18位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，大于0的整数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，yyyy/mm/dd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>和户籍人口关联</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>与小组关联</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>事件概要</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>事件详情</t>
-  </si>
-  <si>
-    <t>事件类型</t>
-  </si>
-  <si>
-    <t>跟进结果</t>
-  </si>
-  <si>
-    <t>完成日期</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>纠纷调解</t>
-  </si>
-  <si>
-    <t>乡村文明</t>
-  </si>
-  <si>
-    <t>关爱弱势群体</t>
-  </si>
-  <si>
-    <t>投诉建议</t>
-  </si>
-  <si>
-    <t>安全生产</t>
-  </si>
-  <si>
-    <t>必填</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyy/mm/dd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填，存在字典项</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填，15位或18位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填，大于0的整数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填，yyyy/mm/dd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>与户主管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>320520199903062716</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>121313a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>231aszsad</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -290,26 +316,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -612,14 +647,14 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.21875" style="6" bestFit="1" customWidth="1"/>
@@ -644,57 +679,59 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="E2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="19" t="s">
-        <v>16</v>
+      <c r="I2" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="18" t="s">
-        <v>21</v>
+      <c r="B3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="7"/>
@@ -704,95 +741,92 @@
       <c r="I3" s="13"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="7"/>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13">
+        <v>36505</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="7"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="7"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="7"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="12"/>
-    </row>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【发生日期】栏" sqref="D9" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>OR(D9&lt;&gt;"")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【小组】栏" sqref="C9" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>OR(C9&lt;&gt;"")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【户主】栏" sqref="B9" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>OR(B9&lt;&gt;"")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【事件概要】栏" sqref="E9" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>OR(E9&lt;&gt;"")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="请输入必填项" error="请输入【事件详情】栏" sqref="F9" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>OR(F9&lt;&gt;"")</formula1>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(#REF!="","",(IF(MID("10X98765432",MOD(SUMPRODUCT(MID(#REF!,ROW(INDIRECT("1:17")),1)*2^(18-ROW(INDIRECT("+$G$11:17")))),11)+1,1)=MID(#REF!,18,18),"正确","错误")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入正确的身份证" sqref="B4" xr:uid="{27920690-0C28-4384-A432-9A5433F8DEEE}">
+      <formula1>15</formula1>
+      <formula2>18</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -818,7 +852,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -828,36 +862,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>